--- a/spliced/struggle/2023-03-25_18-15-13/gyroscope_selected.xlsx
+++ b/spliced/struggle/2023-03-25_18-15-13/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1586722433567047</v>
+        <v>2.08137059211731</v>
       </c>
       <c r="B2" t="n">
-        <v>0.09269879758358</v>
+        <v>-2.974608421325684</v>
       </c>
       <c r="C2" t="n">
-        <v>1.239292860031128</v>
+        <v>1.146135926246643</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.5314527750015259</v>
+        <v>-0.7811439037322998</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.102472648024559</v>
+        <v>1.68369734287262</v>
       </c>
       <c r="C3" t="n">
-        <v>3.775300025939941</v>
+        <v>-1.490358471870422</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.207833290100098</v>
+        <v>-0.4285219609737396</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.546391725540161</v>
+        <v>1.809230089187622</v>
       </c>
       <c r="C4" t="n">
-        <v>9.101892471313477</v>
+        <v>-1.255480766296387</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-3.078760862350464</v>
+        <v>-1.154382586479187</v>
       </c>
       <c r="B5" t="n">
-        <v>2.530203819274902</v>
+        <v>3.296534299850464</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.9534079432487488</v>
+        <v>-1.97553825378418</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.288772940635681</v>
+        <v>-1.183093309402466</v>
       </c>
       <c r="B6" t="n">
-        <v>2.325716733932495</v>
+        <v>0.8458956480026245</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.462411403656006</v>
+        <v>-1.687667965888977</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.502881169319153</v>
+        <v>-0.4327980279922485</v>
       </c>
       <c r="B7" t="n">
-        <v>1.458746194839478</v>
+        <v>2.791501522064209</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.515071392059326</v>
+        <v>-2.889545440673828</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1.791514992713928</v>
+        <v>-2.166738986968994</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5442809462547302</v>
+        <v>1.760666370391846</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.954157948493957</v>
+        <v>-2.120465993881226</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.7409795522689819</v>
+        <v>1.305724501609802</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.1438587605953216</v>
+        <v>0.0389426611363887</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.7490735054016113</v>
+        <v>-1.967597007751465</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.188132882118225</v>
+        <v>2.605340242385864</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.4485278129577636</v>
+        <v>-0.3645338416099548</v>
       </c>
       <c r="C10" t="n">
-        <v>1.251510143280029</v>
+        <v>-0.5674937963485718</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.944689512252808</v>
+        <v>-0.7612907886505127</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.833053827285766</v>
+        <v>2.151620149612427</v>
       </c>
       <c r="C11" t="n">
-        <v>2.259743213653564</v>
+        <v>0.1557706445455551</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.061225652694702</v>
+        <v>0.5158756971359253</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.514015913009644</v>
+        <v>-2.014939069747925</v>
       </c>
       <c r="C12" t="n">
-        <v>1.943009614944458</v>
+        <v>1.058934926986694</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.3481931984424591</v>
+        <v>-0.7177666425704956</v>
       </c>
       <c r="B13" t="n">
-        <v>-3.305850028991699</v>
+        <v>0.8080220222473145</v>
       </c>
       <c r="C13" t="n">
-        <v>2.452929496765137</v>
+        <v>1.101084589958191</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-1.058629512786865</v>
+        <v>0.3738495409488678</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.416430234909058</v>
+        <v>-2.970790386199951</v>
       </c>
       <c r="C14" t="n">
-        <v>2.748740911483765</v>
+        <v>2.029447078704834</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3.130226135253906</v>
+        <v>1.252579212188721</v>
       </c>
       <c r="B15" t="n">
-        <v>-3.047912120819092</v>
+        <v>-2.954449653625488</v>
       </c>
       <c r="C15" t="n">
-        <v>1.918880462646484</v>
+        <v>2.593122959136963</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.08137059211731</v>
+        <v>1.917964100837708</v>
       </c>
       <c r="B16" t="n">
-        <v>-2.974608421325684</v>
+        <v>-2.736523628234864</v>
       </c>
       <c r="C16" t="n">
-        <v>1.146135926246643</v>
+        <v>1.525177836418152</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.7811439037322998</v>
+        <v>-0.9870055317878724</v>
       </c>
       <c r="B17" t="n">
-        <v>1.68369734287262</v>
+        <v>-1.847256541252136</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.490358471870422</v>
+        <v>0.9668469429016112</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.4285219609737396</v>
+        <v>1.084591269493103</v>
       </c>
       <c r="B18" t="n">
-        <v>1.809230089187622</v>
+        <v>-5.03795862197876</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.255480766296387</v>
+        <v>1.1534663438797</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-1.154382586479187</v>
+        <v>-1.704924941062927</v>
       </c>
       <c r="B19" t="n">
-        <v>3.296534299850464</v>
+        <v>-0.2585487067699432</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.97553825378418</v>
+        <v>-1.87276017665863</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-1.183093309402466</v>
+        <v>0.7817547917366028</v>
       </c>
       <c r="B20" t="n">
-        <v>0.8458956480026245</v>
+        <v>1.986839175224304</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.687667965888977</v>
+        <v>-2.802802562713623</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.4327980279922485</v>
+        <v>0.7434229850769043</v>
       </c>
       <c r="B21" t="n">
-        <v>2.791501522064209</v>
+        <v>0.6293439269065857</v>
       </c>
       <c r="C21" t="n">
-        <v>-2.889545440673828</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-2.166738986968994</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1.760666370391846</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-2.120465993881226</v>
+        <v>-2.307848930358887</v>
       </c>
     </row>
   </sheetData>
